--- a/Employee_Reports35/Hernan John Baguion Murcillos Q0542.xlsx
+++ b/Employee_Reports35/Hernan John Baguion Murcillos Q0542.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="4" customWidth="1" min="1" max="1"/>
-    <col width="56" customWidth="1" min="2" max="2"/>
+    <col width="55" customWidth="1" min="2" max="2"/>
     <col width="19" customWidth="1" min="3" max="3"/>
     <col width="18" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -906,20 +906,20 @@
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>02-Mar-2025</t>
+          <t>28-Jan-2025</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">
         <is>
-          <t>02-Mar-2026</t>
+          <t>28-Jan-2026</t>
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -935,135 +935,134 @@
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>Equipment Operation Procedure
-(SOP-031) (SOPs)</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D11" s="4" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-031</t>
-        </is>
-      </c>
-      <c r="E11" s="4" t="inlineStr">
+          <t>Endangered by Electricity A safety Training (SOPs)</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr"/>
+      <c r="D11" s="4" t="inlineStr"/>
+      <c r="E11" s="4" t="inlineStr"/>
+      <c r="F11" s="4" t="inlineStr">
+        <is>
+          <t>30-Jul-2024</t>
+        </is>
+      </c>
+      <c r="G11" s="4" t="inlineStr">
+        <is>
+          <t>30-Jul-2025</t>
+        </is>
+      </c>
+      <c r="H11" s="4" t="n">
+        <v>-97</v>
+      </c>
+      <c r="I11" s="4" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J11" s="4" t="inlineStr">
+        <is>
+          <t>NOT VALID</t>
+        </is>
+      </c>
+      <c r="K11" s="4" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Incident Escalation Process(LSME-IMS-SOP-021 ) (SOPs)</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>IMS</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>LSME-IMS-SOP-021</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
         <is>
           <t>SOP</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
-        <is>
-          <t>07-Jun-2024</t>
-        </is>
-      </c>
-      <c r="G11" s="4" t="inlineStr">
-        <is>
-          <t>07-Jun-2025</t>
-        </is>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>-149</v>
-      </c>
-      <c r="I11" s="4" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J11" s="4" t="inlineStr">
-        <is>
-          <t>NOT VALID</t>
-        </is>
-      </c>
-      <c r="K11" s="4" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="inlineStr">
-        <is>
-          <t>Equipment  Request &amp;handover procedure(SOP-028) (SOPs)</t>
-        </is>
-      </c>
-      <c r="C12" s="4" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D12" s="4" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-028</t>
-        </is>
-      </c>
-      <c r="E12" s="4" t="inlineStr">
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>11-Mar-2025</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>11-Mar-2026</t>
+        </is>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>127</v>
+      </c>
+      <c r="I12" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J12" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K12" s="3" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Contigency Plan During Heavy Rainfall (SOPs)</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>IMS</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>LSME-IMS-SOP-018</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
         <is>
           <t>SOP</t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
-        <is>
-          <t>25-Oct-2023</t>
-        </is>
-      </c>
-      <c r="G12" s="4" t="inlineStr">
-        <is>
-          <t>24-Oct-2024</t>
-        </is>
-      </c>
-      <c r="H12" s="4" t="n">
-        <v>-375</v>
-      </c>
-      <c r="I12" s="4" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J12" s="4" t="inlineStr">
-        <is>
-          <t>NOT VALID</t>
-        </is>
-      </c>
-      <c r="K12" s="4" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4" t="inlineStr">
-        <is>
-          <t>Endangered by Electricity A safety Training (SOPs)</t>
-        </is>
-      </c>
-      <c r="C13" s="4" t="inlineStr"/>
-      <c r="D13" s="4" t="inlineStr"/>
-      <c r="E13" s="4" t="inlineStr"/>
-      <c r="F13" s="4" t="inlineStr">
-        <is>
-          <t>30-Jul-2024</t>
-        </is>
-      </c>
-      <c r="G13" s="4" t="inlineStr">
-        <is>
-          <t>30-Jul-2025</t>
-        </is>
-      </c>
-      <c r="H13" s="4" t="n">
-        <v>-96</v>
-      </c>
-      <c r="I13" s="4" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J13" s="4" t="inlineStr">
-        <is>
-          <t>NOT VALID</t>
-        </is>
-      </c>
-      <c r="K13" s="4" t="inlineStr"/>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>13-Mar-2025</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>13-Mar-2026</t>
+        </is>
+      </c>
+      <c r="H13" s="3" t="n">
+        <v>129</v>
+      </c>
+      <c r="I13" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J13" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K13" s="3" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
@@ -1071,40 +1070,28 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Incident Escalation Process(LSME-IMS-SOP-021 ) (SOPs)</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>IMS</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>LSME-IMS-SOP-021</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
+          <t>Procedure For Handling New or Unfamilliar Task (SOPs)</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr"/>
+      <c r="D14" s="3" t="inlineStr"/>
+      <c r="E14" s="3" t="inlineStr"/>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>11-Mar-2025</t>
+          <t>25-Mar-2025</t>
         </is>
       </c>
       <c r="G14" s="3" t="inlineStr">
         <is>
-          <t>11-Mar-2026</t>
+          <t>25-Mar-2026</t>
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1120,40 +1107,28 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>Misaligned Pallet-ULD Recovery Procedure (SOPs)</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-030</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
+          <t>IS0 55001 (Other Trainings)</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr"/>
+      <c r="D15" s="3" t="inlineStr"/>
+      <c r="E15" s="3" t="inlineStr"/>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>20-Apr-2025</t>
+          <t>10-Jul-2025</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>20-Apr-2026</t>
+          <t>10-Jul-2027</t>
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>168</v>
+        <v>613</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1162,178 +1137,6 @@
         </is>
       </c>
       <c r="K15" s="3" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>Contigency Plan During Heavy Rainfall (SOPs)</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>IMS</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>LSME-IMS-SOP-018</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
-      <c r="F16" s="3" t="inlineStr">
-        <is>
-          <t>11-Mar-2025</t>
-        </is>
-      </c>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t>11-Mar-2026</t>
-        </is>
-      </c>
-      <c r="H16" s="3" t="n">
-        <v>128</v>
-      </c>
-      <c r="I16" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J16" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K16" s="3" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>Procedure For Handling New or Unfamilliar Task (SOPs)</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr"/>
-      <c r="D17" s="3" t="inlineStr"/>
-      <c r="E17" s="3" t="inlineStr"/>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>22-Apr-2025</t>
-        </is>
-      </c>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>22-Apr-2026</t>
-        </is>
-      </c>
-      <c r="H17" s="3" t="n">
-        <v>170</v>
-      </c>
-      <c r="I17" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J17" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K17" s="3" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>Replacement Procedure Of ASI Gateway (SOPs)</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-041</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
-      <c r="F18" s="3" t="inlineStr">
-        <is>
-          <t>21-Apr-2025</t>
-        </is>
-      </c>
-      <c r="G18" s="3" t="inlineStr">
-        <is>
-          <t>21-Apr-2026</t>
-        </is>
-      </c>
-      <c r="H18" s="3" t="n">
-        <v>169</v>
-      </c>
-      <c r="I18" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J18" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K18" s="3" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>IS0 55001 (Other Trainings)</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr"/>
-      <c r="D19" s="3" t="inlineStr"/>
-      <c r="E19" s="3" t="inlineStr"/>
-      <c r="F19" s="3" t="inlineStr">
-        <is>
-          <t>10-Jul-2025</t>
-        </is>
-      </c>
-      <c r="G19" s="3" t="inlineStr">
-        <is>
-          <t>10-Jul-2027</t>
-        </is>
-      </c>
-      <c r="H19" s="3" t="n">
-        <v>614</v>
-      </c>
-      <c r="I19" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J19" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K19" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Employee_Reports35/Hernan John Baguion Murcillos Q0542.xlsx
+++ b/Employee_Reports35/Hernan John Baguion Murcillos Q0542.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -952,11 +952,11 @@
         </is>
       </c>
       <c r="H11" s="4" t="n">
-        <v>-97</v>
+        <v>-98</v>
       </c>
       <c r="I11" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="4" t="inlineStr">
@@ -1001,11 +1001,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1050,11 +1050,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1087,11 +1087,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1124,11 +1124,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
